--- a/test-data/multi-register.xlsx
+++ b/test-data/multi-register.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yu021\PycharmProjects\ldr-utils-py\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\git\github\csiro-lw-ld\ldrpyutils\ldrpyutils\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="registerinfo" sheetId="2" r:id="rId1"/>
-    <sheet name="testreg" sheetId="1" r:id="rId2"/>
+    <sheet name="testreg1" sheetId="1" r:id="rId2"/>
     <sheet name="testreg2" sheetId="4" r:id="rId3"/>
     <sheet name="testreg3" sheetId="5" r:id="rId4"/>
   </sheets>
@@ -104,9 +104,6 @@
     <t>Register_property_value</t>
   </si>
   <si>
-    <t>testreg</t>
-  </si>
-  <si>
     <t>Register_id</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>l</t>
+  </si>
+  <si>
+    <t>testreg1</t>
   </si>
 </sst>
 </file>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,7 +497,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>23</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -530,79 +530,79 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -818,7 +818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -901,7 +901,7 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -912,16 +912,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
         <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
